--- a/downlod.xlsx
+++ b/downlod.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,738 +479,3245 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44151</v>
+        <v>44075</v>
       </c>
       <c r="B2" t="n">
-        <v>81.20999908447266</v>
+        <v>502.1400146484375</v>
       </c>
       <c r="C2" t="n">
-        <v>83.77999877929688</v>
+        <v>502.489990234375</v>
       </c>
       <c r="D2" t="n">
-        <v>80.48000335693359</v>
+        <v>470.510009765625</v>
       </c>
       <c r="E2" t="n">
-        <v>83.73000335693359</v>
+        <v>475.0499877929688</v>
       </c>
       <c r="F2" t="n">
-        <v>83.73000335693359</v>
+        <v>475.0499877929688</v>
       </c>
       <c r="G2" t="n">
-        <v>38640800</v>
+        <v>89841100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44152</v>
+        <v>44076</v>
       </c>
       <c r="B3" t="n">
-        <v>83.93000030517578</v>
+        <v>478.989990234375</v>
       </c>
       <c r="C3" t="n">
-        <v>84.80999755859375</v>
+        <v>479.0400085449219</v>
       </c>
       <c r="D3" t="n">
-        <v>82.91000366210938</v>
+        <v>405.1199951171875</v>
       </c>
       <c r="E3" t="n">
-        <v>83.36000061035156</v>
+        <v>447.3699951171875</v>
       </c>
       <c r="F3" t="n">
-        <v>83.36000061035156</v>
+        <v>447.3699951171875</v>
       </c>
       <c r="G3" t="n">
-        <v>29473500</v>
+        <v>96176100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44153</v>
+        <v>44077</v>
       </c>
       <c r="B4" t="n">
-        <v>83.01000213623047</v>
+        <v>407.2300109863281</v>
       </c>
       <c r="C4" t="n">
-        <v>83.95999908447266</v>
+        <v>431.7999877929688</v>
       </c>
       <c r="D4" t="n">
-        <v>82.22000122070312</v>
+        <v>402</v>
       </c>
       <c r="E4" t="n">
-        <v>82.54000091552734</v>
+        <v>407</v>
       </c>
       <c r="F4" t="n">
-        <v>82.54000091552734</v>
+        <v>407</v>
       </c>
       <c r="G4" t="n">
-        <v>29968000</v>
+        <v>87596100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44154</v>
+        <v>44078</v>
       </c>
       <c r="B5" t="n">
-        <v>82.38999938964844</v>
+        <v>402.8099975585938</v>
       </c>
       <c r="C5" t="n">
-        <v>85.63999938964844</v>
+        <v>428</v>
       </c>
       <c r="D5" t="n">
-        <v>81.72000122070312</v>
+        <v>372.0199890136719</v>
       </c>
       <c r="E5" t="n">
-        <v>85.54000091552734</v>
+        <v>418.3200073242188</v>
       </c>
       <c r="F5" t="n">
-        <v>85.54000091552734</v>
+        <v>418.3200073242188</v>
       </c>
       <c r="G5" t="n">
-        <v>50116800</v>
+        <v>110321900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44155</v>
+        <v>44082</v>
       </c>
       <c r="B6" t="n">
-        <v>85.27999877929688</v>
+        <v>356</v>
       </c>
       <c r="C6" t="n">
-        <v>86.09999847412109</v>
+        <v>368.739990234375</v>
       </c>
       <c r="D6" t="n">
-        <v>84.47000122070312</v>
+        <v>329.8800048828125</v>
       </c>
       <c r="E6" t="n">
-        <v>84.63999938964844</v>
+        <v>330.2099914550781</v>
       </c>
       <c r="F6" t="n">
-        <v>84.63999938964844</v>
+        <v>330.2099914550781</v>
       </c>
       <c r="G6" t="n">
-        <v>35008400</v>
+        <v>115465700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44158</v>
+        <v>44083</v>
       </c>
       <c r="B7" t="n">
-        <v>85.51999664306641</v>
+        <v>356.6000061035156</v>
       </c>
       <c r="C7" t="n">
-        <v>87.54000091552734</v>
+        <v>369</v>
       </c>
       <c r="D7" t="n">
-        <v>84.62000274658203</v>
+        <v>341.510009765625</v>
       </c>
       <c r="E7" t="n">
-        <v>85.30999755859375</v>
+        <v>366.2799987792969</v>
       </c>
       <c r="F7" t="n">
-        <v>85.30999755859375</v>
+        <v>366.2799987792969</v>
       </c>
       <c r="G7" t="n">
-        <v>46505000</v>
+        <v>79465800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44159</v>
+        <v>44084</v>
       </c>
       <c r="B8" t="n">
-        <v>85.72000122070312</v>
+        <v>386.2099914550781</v>
       </c>
       <c r="C8" t="n">
-        <v>86.11000061035156</v>
+        <v>398.989990234375</v>
       </c>
       <c r="D8" t="n">
-        <v>83.31999969482422</v>
+        <v>360.5599975585938</v>
       </c>
       <c r="E8" t="n">
-        <v>85.06999969482422</v>
+        <v>371.3399963378906</v>
       </c>
       <c r="F8" t="n">
-        <v>85.06999969482422</v>
+        <v>371.3399963378906</v>
       </c>
       <c r="G8" t="n">
-        <v>36839200</v>
+        <v>84930600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44160</v>
+        <v>44085</v>
       </c>
       <c r="B9" t="n">
-        <v>85.76000213623047</v>
+        <v>381.9400024414062</v>
       </c>
       <c r="C9" t="n">
-        <v>87.83999633789062</v>
+        <v>382.5</v>
       </c>
       <c r="D9" t="n">
-        <v>85.51999664306641</v>
+        <v>360.5</v>
       </c>
       <c r="E9" t="n">
-        <v>86.70999908447266</v>
+        <v>372.7200012207031</v>
       </c>
       <c r="F9" t="n">
-        <v>86.70999908447266</v>
+        <v>372.7200012207031</v>
       </c>
       <c r="G9" t="n">
-        <v>41349700</v>
+        <v>60717500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44162</v>
+        <v>44088</v>
       </c>
       <c r="B10" t="n">
-        <v>87.98999786376953</v>
+        <v>380.9500122070312</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>420</v>
       </c>
       <c r="D10" t="n">
-        <v>86.36000061035156</v>
+        <v>373.2999877929688</v>
       </c>
       <c r="E10" t="n">
-        <v>87.19000244140625</v>
+        <v>419.6199951171875</v>
       </c>
       <c r="F10" t="n">
-        <v>87.19000244140625</v>
+        <v>419.6199951171875</v>
       </c>
       <c r="G10" t="n">
-        <v>22717600</v>
+        <v>83020600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44165</v>
+        <v>44089</v>
       </c>
       <c r="B11" t="n">
-        <v>87.33000183105469</v>
+        <v>436.5599975585938</v>
       </c>
       <c r="C11" t="n">
-        <v>92.73999786376953</v>
+        <v>461.9400024414062</v>
       </c>
       <c r="D11" t="n">
-        <v>86.52999877929688</v>
+        <v>430.7000122070312</v>
       </c>
       <c r="E11" t="n">
-        <v>92.66000366210938</v>
+        <v>449.760009765625</v>
       </c>
       <c r="F11" t="n">
-        <v>92.66000366210938</v>
+        <v>449.760009765625</v>
       </c>
       <c r="G11" t="n">
-        <v>84483000</v>
+        <v>97298200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44166</v>
+        <v>44090</v>
       </c>
       <c r="B12" t="n">
-        <v>92.25</v>
+        <v>439.8699951171875</v>
       </c>
       <c r="C12" t="n">
-        <v>93.90000152587891</v>
+        <v>457.7900085449219</v>
       </c>
       <c r="D12" t="n">
-        <v>90.77999877929688</v>
+        <v>435.3099975585938</v>
       </c>
       <c r="E12" t="n">
-        <v>92.62999725341797</v>
+        <v>441.760009765625</v>
       </c>
       <c r="F12" t="n">
-        <v>92.62999725341797</v>
+        <v>441.760009765625</v>
       </c>
       <c r="G12" t="n">
-        <v>58670500</v>
+        <v>72279300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44167</v>
+        <v>44091</v>
       </c>
       <c r="B13" t="n">
-        <v>92.88999938964844</v>
+        <v>415.6000061035156</v>
       </c>
       <c r="C13" t="n">
-        <v>96.37000274658203</v>
+        <v>437.7900085449219</v>
       </c>
       <c r="D13" t="n">
-        <v>92.52999877929688</v>
+        <v>408</v>
       </c>
       <c r="E13" t="n">
-        <v>93.73999786376953</v>
+        <v>423.4299926757812</v>
       </c>
       <c r="F13" t="n">
-        <v>93.73999786376953</v>
+        <v>423.4299926757812</v>
       </c>
       <c r="G13" t="n">
-        <v>57988800</v>
+        <v>76779200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44168</v>
+        <v>44092</v>
       </c>
       <c r="B14" t="n">
-        <v>94.05999755859375</v>
+        <v>447.9400024414062</v>
       </c>
       <c r="C14" t="n">
-        <v>94.69999694824219</v>
+        <v>451</v>
       </c>
       <c r="D14" t="n">
-        <v>92.01000213623047</v>
+        <v>428.7999877929688</v>
       </c>
       <c r="E14" t="n">
-        <v>92.30999755859375</v>
+        <v>442.1499938964844</v>
       </c>
       <c r="F14" t="n">
-        <v>92.30999755859375</v>
+        <v>442.1499938964844</v>
       </c>
       <c r="G14" t="n">
-        <v>35859700</v>
+        <v>86406800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44169</v>
+        <v>44095</v>
       </c>
       <c r="B15" t="n">
-        <v>92.58000183105469</v>
+        <v>453.1300048828125</v>
       </c>
       <c r="C15" t="n">
-        <v>94.58000183105469</v>
+        <v>455.6799926757812</v>
       </c>
       <c r="D15" t="n">
-        <v>90.62999725341797</v>
+        <v>407.0700073242188</v>
       </c>
       <c r="E15" t="n">
-        <v>94.04000091552734</v>
+        <v>449.3900146484375</v>
       </c>
       <c r="F15" t="n">
-        <v>94.04000091552734</v>
+        <v>449.3900146484375</v>
       </c>
       <c r="G15" t="n">
-        <v>45570300</v>
+        <v>109476800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44172</v>
+        <v>44096</v>
       </c>
       <c r="B16" t="n">
-        <v>94.94999694824219</v>
+        <v>429.6000061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>437.760009765625</v>
       </c>
       <c r="D16" t="n">
-        <v>92.97000122070312</v>
+        <v>417.6000061035156</v>
       </c>
       <c r="E16" t="n">
-        <v>94.06999969482422</v>
+        <v>424.2300109863281</v>
       </c>
       <c r="F16" t="n">
-        <v>94.06999969482422</v>
+        <v>424.2300109863281</v>
       </c>
       <c r="G16" t="n">
-        <v>39815700</v>
+        <v>79580800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44173</v>
+        <v>44097</v>
       </c>
       <c r="B17" t="n">
-        <v>94.05000305175781</v>
+        <v>405.1600036621094</v>
       </c>
       <c r="C17" t="n">
-        <v>94.73999786376953</v>
+        <v>412.1499938964844</v>
       </c>
       <c r="D17" t="n">
-        <v>91.90000152587891</v>
+        <v>375.8800048828125</v>
       </c>
       <c r="E17" t="n">
-        <v>92.91999816894531</v>
+        <v>380.3599853515625</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91999816894531</v>
+        <v>380.3599853515625</v>
       </c>
       <c r="G17" t="n">
-        <v>33907500</v>
+        <v>95074200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44174</v>
+        <v>44098</v>
       </c>
       <c r="B18" t="n">
-        <v>92.76000213623047</v>
+        <v>363.7999877929688</v>
       </c>
       <c r="C18" t="n">
-        <v>94.69999694824219</v>
+        <v>399.5</v>
       </c>
       <c r="D18" t="n">
-        <v>89.16000366210938</v>
+        <v>351.2999877929688</v>
       </c>
       <c r="E18" t="n">
-        <v>89.83000183105469</v>
+        <v>387.7900085449219</v>
       </c>
       <c r="F18" t="n">
-        <v>89.83000183105469</v>
+        <v>387.7900085449219</v>
       </c>
       <c r="G18" t="n">
-        <v>52170400</v>
+        <v>96561100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44175</v>
+        <v>44099</v>
       </c>
       <c r="B19" t="n">
-        <v>89.55000305175781</v>
+        <v>393.4700012207031</v>
       </c>
       <c r="C19" t="n">
-        <v>92.08999633789062</v>
+        <v>408.7300109863281</v>
       </c>
       <c r="D19" t="n">
-        <v>89.02999877929688</v>
+        <v>391.2999877929688</v>
       </c>
       <c r="E19" t="n">
-        <v>91.66000366210938</v>
+        <v>407.3399963378906</v>
       </c>
       <c r="F19" t="n">
-        <v>91.66000366210938</v>
+        <v>407.3399963378906</v>
       </c>
       <c r="G19" t="n">
-        <v>33804400</v>
+        <v>67208500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44176</v>
+        <v>44102</v>
       </c>
       <c r="B20" t="n">
-        <v>91.54000091552734</v>
+        <v>424.6199951171875</v>
       </c>
       <c r="C20" t="n">
-        <v>92.33000183105469</v>
+        <v>428.0799865722656</v>
       </c>
       <c r="D20" t="n">
-        <v>90.16000366210938</v>
+        <v>415.5499877929688</v>
       </c>
       <c r="E20" t="n">
-        <v>91.65000152587891</v>
+        <v>421.2000122070312</v>
       </c>
       <c r="F20" t="n">
-        <v>91.65000152587891</v>
+        <v>421.2000122070312</v>
       </c>
       <c r="G20" t="n">
-        <v>28368100</v>
+        <v>49719600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44179</v>
+        <v>44103</v>
       </c>
       <c r="B21" t="n">
-        <v>92.20999908447266</v>
+        <v>416</v>
       </c>
       <c r="C21" t="n">
-        <v>95.41000366210938</v>
+        <v>428.5</v>
       </c>
       <c r="D21" t="n">
-        <v>91.84999847412109</v>
+        <v>411.6000061035156</v>
       </c>
       <c r="E21" t="n">
-        <v>94.77999877929688</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="F21" t="n">
-        <v>94.77999877929688</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="G21" t="n">
-        <v>48026400</v>
+        <v>50219300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44180</v>
+        <v>44104</v>
       </c>
       <c r="B22" t="n">
-        <v>95.93000030517578</v>
+        <v>421.3200073242188</v>
       </c>
       <c r="C22" t="n">
-        <v>97.98000335693359</v>
+        <v>433.9299926757812</v>
       </c>
       <c r="D22" t="n">
-        <v>95.44999694824219</v>
+        <v>420.4700012207031</v>
       </c>
       <c r="E22" t="n">
-        <v>97.12000274658203</v>
+        <v>429.010009765625</v>
       </c>
       <c r="F22" t="n">
-        <v>97.12000274658203</v>
+        <v>429.010009765625</v>
       </c>
       <c r="G22" t="n">
-        <v>57305100</v>
+        <v>48145600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44181</v>
+        <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>97.04000091552734</v>
+        <v>440.760009765625</v>
       </c>
       <c r="C23" t="n">
-        <v>97.26999664306641</v>
+        <v>448.8800048828125</v>
       </c>
       <c r="D23" t="n">
-        <v>95.45999908447266</v>
+        <v>434.4200134277344</v>
       </c>
       <c r="E23" t="n">
-        <v>96.84999847412109</v>
+        <v>448.1600036621094</v>
       </c>
       <c r="F23" t="n">
-        <v>96.84999847412109</v>
+        <v>448.1600036621094</v>
       </c>
       <c r="G23" t="n">
-        <v>34909000</v>
+        <v>50741500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44182</v>
+        <v>44106</v>
       </c>
       <c r="B24" t="n">
-        <v>97.55000305175781</v>
+        <v>421.3900146484375</v>
       </c>
       <c r="C24" t="n">
-        <v>97.91999816894531</v>
+        <v>439.1300048828125</v>
       </c>
       <c r="D24" t="n">
-        <v>96.25</v>
+        <v>415</v>
       </c>
       <c r="E24" t="n">
-        <v>96.83999633789062</v>
+        <v>415.0899963378906</v>
       </c>
       <c r="F24" t="n">
-        <v>96.83999633789062</v>
+        <v>415.0899963378906</v>
       </c>
       <c r="G24" t="n">
-        <v>32023700</v>
+        <v>71430000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44183</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
-        <v>97.26999664306641</v>
+        <v>423.3500061035156</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68000030517578</v>
+        <v>433.6400146484375</v>
       </c>
       <c r="D25" t="n">
-        <v>93.55999755859375</v>
+        <v>419.3299865722656</v>
       </c>
       <c r="E25" t="n">
-        <v>95.91999816894531</v>
+        <v>425.6799926757812</v>
       </c>
       <c r="F25" t="n">
-        <v>95.91999816894531</v>
+        <v>425.6799926757812</v>
       </c>
       <c r="G25" t="n">
-        <v>51823100</v>
+        <v>44722800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44110</v>
       </c>
       <c r="B26" t="n">
-        <v>94.25</v>
+        <v>423.7900085449219</v>
       </c>
       <c r="C26" t="n">
-        <v>95.27999877929688</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="D26" t="n">
-        <v>91.08000183105469</v>
+        <v>406.0499877929688</v>
       </c>
       <c r="E26" t="n">
-        <v>93.23000335693359</v>
+        <v>413.9800109863281</v>
       </c>
       <c r="F26" t="n">
-        <v>93.23000335693359</v>
+        <v>413.9800109863281</v>
       </c>
       <c r="G26" t="n">
-        <v>47093900</v>
+        <v>49146300</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44187</v>
+        <v>44111</v>
       </c>
       <c r="B27" t="n">
-        <v>93.36000061035156</v>
+        <v>419.8699951171875</v>
       </c>
       <c r="C27" t="n">
-        <v>93.55000305175781</v>
+        <v>429.8999938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>90.52999877929688</v>
+        <v>413.8500061035156</v>
       </c>
       <c r="E27" t="n">
-        <v>93.16000366210938</v>
+        <v>425.2999877929688</v>
       </c>
       <c r="F27" t="n">
-        <v>93.16000366210938</v>
+        <v>425.2999877929688</v>
       </c>
       <c r="G27" t="n">
-        <v>35673700</v>
+        <v>43127700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44188</v>
+        <v>44112</v>
       </c>
       <c r="B28" t="n">
-        <v>93.08000183105469</v>
+        <v>438.4400024414062</v>
       </c>
       <c r="C28" t="n">
-        <v>93.12999725341797</v>
+        <v>439</v>
       </c>
       <c r="D28" t="n">
-        <v>91.45999908447266</v>
+        <v>425.2999877929688</v>
       </c>
       <c r="E28" t="n">
-        <v>91.55000305175781</v>
+        <v>425.9200134277344</v>
       </c>
       <c r="F28" t="n">
-        <v>91.55000305175781</v>
+        <v>425.9200134277344</v>
       </c>
       <c r="G28" t="n">
-        <v>25993300</v>
+        <v>40421100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44189</v>
+        <v>44113</v>
       </c>
       <c r="B29" t="n">
-        <v>91.80000305175781</v>
+        <v>430.1300048828125</v>
       </c>
       <c r="C29" t="n">
-        <v>92.51000213623047</v>
+        <v>434.5899963378906</v>
       </c>
       <c r="D29" t="n">
-        <v>91.30999755859375</v>
+        <v>426.4599914550781</v>
       </c>
       <c r="E29" t="n">
-        <v>91.80999755859375</v>
+        <v>434</v>
       </c>
       <c r="F29" t="n">
-        <v>91.80999755859375</v>
+        <v>434</v>
       </c>
       <c r="G29" t="n">
-        <v>16705900</v>
+        <v>28925700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44193</v>
+        <v>44116</v>
       </c>
       <c r="B30" t="n">
-        <v>92.93000030517578</v>
+        <v>442</v>
       </c>
       <c r="C30" t="n">
-        <v>93.13999938964844</v>
+        <v>448.739990234375</v>
       </c>
       <c r="D30" t="n">
-        <v>90.81999969482422</v>
+        <v>438.5799865722656</v>
       </c>
       <c r="E30" t="n">
-        <v>91.59999847412109</v>
+        <v>442.2999877929688</v>
       </c>
       <c r="F30" t="n">
-        <v>91.59999847412109</v>
+        <v>442.2999877929688</v>
       </c>
       <c r="G30" t="n">
-        <v>30627300</v>
+        <v>38791100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44194</v>
+        <v>44117</v>
       </c>
       <c r="B31" t="n">
-        <v>91.66000366210938</v>
+        <v>443.3500061035156</v>
       </c>
       <c r="C31" t="n">
-        <v>92.45999908447266</v>
+        <v>448.8900146484375</v>
       </c>
       <c r="D31" t="n">
-        <v>89.43000030517578</v>
+        <v>436.6000061035156</v>
       </c>
       <c r="E31" t="n">
-        <v>90.62000274658203</v>
+        <v>446.6499938964844</v>
       </c>
       <c r="F31" t="n">
-        <v>90.62000274658203</v>
+        <v>446.6499938964844</v>
       </c>
       <c r="G31" t="n">
-        <v>31748200</v>
+        <v>34463700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44195</v>
+        <v>44118</v>
       </c>
       <c r="B32" t="n">
-        <v>90.77999877929688</v>
+        <v>449.7799987792969</v>
       </c>
       <c r="C32" t="n">
-        <v>92.84999847412109</v>
+        <v>465.8999938964844</v>
       </c>
       <c r="D32" t="n">
-        <v>90.19000244140625</v>
+        <v>447.3500061035156</v>
       </c>
       <c r="E32" t="n">
-        <v>92.29000091552734</v>
+        <v>461.2999877929688</v>
       </c>
       <c r="F32" t="n">
-        <v>92.29000091552734</v>
+        <v>461.2999877929688</v>
       </c>
       <c r="G32" t="n">
-        <v>25845000</v>
+        <v>47879700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B33" t="n">
+        <v>450.3099975585938</v>
+      </c>
+      <c r="C33" t="n">
+        <v>456.5700073242188</v>
+      </c>
+      <c r="D33" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>448.8800048828125</v>
+      </c>
+      <c r="F33" t="n">
+        <v>448.8800048828125</v>
+      </c>
+      <c r="G33" t="n">
+        <v>35672400</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="B34" t="n">
+        <v>454.4400024414062</v>
+      </c>
+      <c r="C34" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="D34" t="n">
+        <v>438.8500061035156</v>
+      </c>
+      <c r="E34" t="n">
+        <v>439.6700134277344</v>
+      </c>
+      <c r="F34" t="n">
+        <v>439.6700134277344</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32775900</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="B35" t="n">
+        <v>446.239990234375</v>
+      </c>
+      <c r="C35" t="n">
+        <v>447</v>
+      </c>
+      <c r="D35" t="n">
+        <v>428.8699951171875</v>
+      </c>
+      <c r="E35" t="n">
+        <v>430.8299865722656</v>
+      </c>
+      <c r="F35" t="n">
+        <v>430.8299865722656</v>
+      </c>
+      <c r="G35" t="n">
+        <v>36287800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44124</v>
+      </c>
+      <c r="B36" t="n">
+        <v>431.75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>431.75</v>
+      </c>
+      <c r="D36" t="n">
+        <v>419.0499877929688</v>
+      </c>
+      <c r="E36" t="n">
+        <v>421.9400024414062</v>
+      </c>
+      <c r="F36" t="n">
+        <v>421.9400024414062</v>
+      </c>
+      <c r="G36" t="n">
+        <v>31656300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="B37" t="n">
+        <v>422.7000122070312</v>
+      </c>
+      <c r="C37" t="n">
+        <v>432.9500122070312</v>
+      </c>
+      <c r="D37" t="n">
+        <v>421.25</v>
+      </c>
+      <c r="E37" t="n">
+        <v>422.6400146484375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>422.6400146484375</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32370500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B38" t="n">
+        <v>441.9200134277344</v>
+      </c>
+      <c r="C38" t="n">
+        <v>445.2300109863281</v>
+      </c>
+      <c r="D38" t="n">
+        <v>424.510009765625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>425.7900085449219</v>
+      </c>
+      <c r="F38" t="n">
+        <v>425.7900085449219</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39993200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44127</v>
+      </c>
+      <c r="B39" t="n">
+        <v>421.8399963378906</v>
+      </c>
+      <c r="C39" t="n">
+        <v>422.8900146484375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>407.3800048828125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>420.6300048828125</v>
+      </c>
+      <c r="F39" t="n">
+        <v>420.6300048828125</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33717000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="B40" t="n">
+        <v>411.6300048828125</v>
+      </c>
+      <c r="C40" t="n">
+        <v>425.760009765625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>410</v>
+      </c>
+      <c r="E40" t="n">
+        <v>420.2799987792969</v>
+      </c>
+      <c r="F40" t="n">
+        <v>420.2799987792969</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28239200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44131</v>
+      </c>
+      <c r="B41" t="n">
+        <v>423.760009765625</v>
+      </c>
+      <c r="C41" t="n">
+        <v>430.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="E41" t="n">
+        <v>424.6799926757812</v>
+      </c>
+      <c r="F41" t="n">
+        <v>424.6799926757812</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22686500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="B42" t="n">
+        <v>416.4800109863281</v>
+      </c>
+      <c r="C42" t="n">
+        <v>418.6000061035156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>406</v>
+      </c>
+      <c r="E42" t="n">
+        <v>406.0199890136719</v>
+      </c>
+      <c r="F42" t="n">
+        <v>406.0199890136719</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25451400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B43" t="n">
+        <v>409.9599914550781</v>
+      </c>
+      <c r="C43" t="n">
+        <v>418.0599975585938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>406.4599914550781</v>
+      </c>
+      <c r="E43" t="n">
+        <v>410.8299865722656</v>
+      </c>
+      <c r="F43" t="n">
+        <v>410.8299865722656</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22655300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B44" t="n">
+        <v>406.8999938964844</v>
+      </c>
+      <c r="C44" t="n">
+        <v>407.5899963378906</v>
+      </c>
+      <c r="D44" t="n">
+        <v>379.1099853515625</v>
+      </c>
+      <c r="E44" t="n">
+        <v>388.0400085449219</v>
+      </c>
+      <c r="F44" t="n">
+        <v>388.0400085449219</v>
+      </c>
+      <c r="G44" t="n">
+        <v>42511300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="B45" t="n">
+        <v>394</v>
+      </c>
+      <c r="C45" t="n">
+        <v>406.9800109863281</v>
+      </c>
+      <c r="D45" t="n">
+        <v>392.2999877929688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>400.510009765625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>400.510009765625</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29021100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44138</v>
+      </c>
+      <c r="B46" t="n">
+        <v>409.7300109863281</v>
+      </c>
+      <c r="C46" t="n">
+        <v>427.7699890136719</v>
+      </c>
+      <c r="D46" t="n">
+        <v>406.6900024414062</v>
+      </c>
+      <c r="E46" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="F46" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="G46" t="n">
+        <v>34351700</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B47" t="n">
+        <v>430.6199951171875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>435.3999938964844</v>
+      </c>
+      <c r="D47" t="n">
+        <v>417.1000061035156</v>
+      </c>
+      <c r="E47" t="n">
+        <v>420.9800109863281</v>
+      </c>
+      <c r="F47" t="n">
+        <v>420.9800109863281</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32143100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B48" t="n">
+        <v>428.2999877929688</v>
+      </c>
+      <c r="C48" t="n">
+        <v>440</v>
+      </c>
+      <c r="D48" t="n">
+        <v>424</v>
+      </c>
+      <c r="E48" t="n">
+        <v>438.0899963378906</v>
+      </c>
+      <c r="F48" t="n">
+        <v>438.0899963378906</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28414500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B49" t="n">
+        <v>436.1000061035156</v>
+      </c>
+      <c r="C49" t="n">
+        <v>436.5700073242188</v>
+      </c>
+      <c r="D49" t="n">
+        <v>424.2799987792969</v>
+      </c>
+      <c r="E49" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="F49" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21706000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44144</v>
+      </c>
+      <c r="B50" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>421</v>
+      </c>
+      <c r="E50" t="n">
+        <v>421.260009765625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>421.260009765625</v>
+      </c>
+      <c r="G50" t="n">
+        <v>34833000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B51" t="n">
+        <v>420.0899963378906</v>
+      </c>
+      <c r="C51" t="n">
+        <v>420.0899963378906</v>
+      </c>
+      <c r="D51" t="n">
+        <v>396.0299987792969</v>
+      </c>
+      <c r="E51" t="n">
+        <v>410.3599853515625</v>
+      </c>
+      <c r="F51" t="n">
+        <v>410.3599853515625</v>
+      </c>
+      <c r="G51" t="n">
+        <v>30284200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B52" t="n">
+        <v>416.4500122070312</v>
+      </c>
+      <c r="C52" t="n">
+        <v>418.7000122070312</v>
+      </c>
+      <c r="D52" t="n">
+        <v>410.5799865722656</v>
+      </c>
+      <c r="E52" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="F52" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17357700</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B53" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="C53" t="n">
+        <v>423</v>
+      </c>
+      <c r="D53" t="n">
+        <v>409.5199890136719</v>
+      </c>
+      <c r="E53" t="n">
+        <v>411.760009765625</v>
+      </c>
+      <c r="F53" t="n">
+        <v>411.760009765625</v>
+      </c>
+      <c r="G53" t="n">
+        <v>19855100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B54" t="n">
+        <v>410.8500061035156</v>
+      </c>
+      <c r="C54" t="n">
+        <v>412.5299987792969</v>
+      </c>
+      <c r="D54" t="n">
+        <v>401.6600036621094</v>
+      </c>
+      <c r="E54" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19771100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B55" t="n">
+        <v>408.9299926757812</v>
+      </c>
+      <c r="C55" t="n">
+        <v>412.4500122070312</v>
+      </c>
+      <c r="D55" t="n">
+        <v>404.0899963378906</v>
+      </c>
+      <c r="E55" t="n">
+        <v>408.0899963378906</v>
+      </c>
+      <c r="F55" t="n">
+        <v>408.0899963378906</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26838600</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B56" t="n">
+        <v>460.1700134277344</v>
+      </c>
+      <c r="C56" t="n">
+        <v>462</v>
+      </c>
+      <c r="D56" t="n">
+        <v>433.010009765625</v>
+      </c>
+      <c r="E56" t="n">
+        <v>441.6099853515625</v>
+      </c>
+      <c r="F56" t="n">
+        <v>441.6099853515625</v>
+      </c>
+      <c r="G56" t="n">
+        <v>61188300</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B57" t="n">
+        <v>448.3500061035156</v>
+      </c>
+      <c r="C57" t="n">
+        <v>496</v>
+      </c>
+      <c r="D57" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>486.6400146484375</v>
+      </c>
+      <c r="F57" t="n">
+        <v>486.6400146484375</v>
+      </c>
+      <c r="G57" t="n">
+        <v>78044000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B58" t="n">
+        <v>492</v>
+      </c>
+      <c r="C58" t="n">
+        <v>508.6099853515625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>487.5700073242188</v>
+      </c>
+      <c r="E58" t="n">
+        <v>499.2699890136719</v>
+      </c>
+      <c r="F58" t="n">
+        <v>499.2699890136719</v>
+      </c>
+      <c r="G58" t="n">
+        <v>62475300</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B59" t="n">
+        <v>497.989990234375</v>
+      </c>
+      <c r="C59" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>489.0599975585938</v>
+      </c>
+      <c r="E59" t="n">
+        <v>489.6099853515625</v>
+      </c>
+      <c r="F59" t="n">
+        <v>489.6099853515625</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32911900</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="B60" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>526</v>
+      </c>
+      <c r="D60" t="n">
+        <v>501.7900085449219</v>
+      </c>
+      <c r="E60" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="F60" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50260300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44159</v>
+      </c>
+      <c r="B61" t="n">
+        <v>540.4000244140625</v>
+      </c>
+      <c r="C61" t="n">
+        <v>559.989990234375</v>
+      </c>
+      <c r="D61" t="n">
+        <v>526.2000122070312</v>
+      </c>
+      <c r="E61" t="n">
+        <v>555.3800048828125</v>
+      </c>
+      <c r="F61" t="n">
+        <v>555.3800048828125</v>
+      </c>
+      <c r="G61" t="n">
+        <v>53648500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B62" t="n">
+        <v>550.0599975585938</v>
+      </c>
+      <c r="C62" t="n">
+        <v>574</v>
+      </c>
+      <c r="D62" t="n">
+        <v>545.3699951171875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>574</v>
+      </c>
+      <c r="F62" t="n">
+        <v>574</v>
+      </c>
+      <c r="G62" t="n">
+        <v>48930200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B63" t="n">
+        <v>581.1599731445312</v>
+      </c>
+      <c r="C63" t="n">
+        <v>598.780029296875</v>
+      </c>
+      <c r="D63" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="E63" t="n">
+        <v>585.760009765625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>585.760009765625</v>
+      </c>
+      <c r="G63" t="n">
+        <v>37561100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B64" t="n">
+        <v>602.2100219726562</v>
+      </c>
+      <c r="C64" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="D64" t="n">
+        <v>554.510009765625</v>
+      </c>
+      <c r="E64" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="G64" t="n">
+        <v>63003100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B65" t="n">
+        <v>597.5900268554688</v>
+      </c>
+      <c r="C65" t="n">
+        <v>597.8499755859375</v>
+      </c>
+      <c r="D65" t="n">
+        <v>572.0499877929688</v>
+      </c>
+      <c r="E65" t="n">
+        <v>584.760009765625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>584.760009765625</v>
+      </c>
+      <c r="G65" t="n">
+        <v>40103500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B66" t="n">
+        <v>556.4400024414062</v>
+      </c>
+      <c r="C66" t="n">
+        <v>571.5399780273438</v>
+      </c>
+      <c r="D66" t="n">
+        <v>541.2100219726562</v>
+      </c>
+      <c r="E66" t="n">
+        <v>568.8200073242188</v>
+      </c>
+      <c r="F66" t="n">
+        <v>568.8200073242188</v>
+      </c>
+      <c r="G66" t="n">
+        <v>47775700</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B67" t="n">
+        <v>590.02001953125</v>
+      </c>
+      <c r="C67" t="n">
+        <v>598.969970703125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>582.4299926757812</v>
+      </c>
+      <c r="E67" t="n">
+        <v>593.3800048828125</v>
+      </c>
+      <c r="F67" t="n">
+        <v>593.3800048828125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>42552000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B68" t="n">
+        <v>591.010009765625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>599.0399780273438</v>
+      </c>
+      <c r="D68" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>599.0399780273438</v>
+      </c>
+      <c r="F68" t="n">
+        <v>599.0399780273438</v>
+      </c>
+      <c r="G68" t="n">
+        <v>29401300</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="B69" t="n">
+        <v>604.9199829101562</v>
+      </c>
+      <c r="C69" t="n">
+        <v>648.7899780273438</v>
+      </c>
+      <c r="D69" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="E69" t="n">
+        <v>641.760009765625</v>
+      </c>
+      <c r="F69" t="n">
+        <v>641.760009765625</v>
+      </c>
+      <c r="G69" t="n">
+        <v>56309700</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B70" t="n">
+        <v>625.510009765625</v>
+      </c>
+      <c r="C70" t="n">
+        <v>651.280029296875</v>
+      </c>
+      <c r="D70" t="n">
+        <v>618.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>649.8800048828125</v>
+      </c>
+      <c r="F70" t="n">
+        <v>649.8800048828125</v>
+      </c>
+      <c r="G70" t="n">
+        <v>64265000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B71" t="n">
+        <v>653.6900024414062</v>
+      </c>
+      <c r="C71" t="n">
+        <v>654.3200073242188</v>
+      </c>
+      <c r="D71" t="n">
+        <v>588</v>
+      </c>
+      <c r="E71" t="n">
+        <v>604.47998046875</v>
+      </c>
+      <c r="F71" t="n">
+        <v>604.47998046875</v>
+      </c>
+      <c r="G71" t="n">
+        <v>71291200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B72" t="n">
+        <v>574.3699951171875</v>
+      </c>
+      <c r="C72" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="D72" t="n">
+        <v>566.3400268554688</v>
+      </c>
+      <c r="E72" t="n">
+        <v>627.0700073242188</v>
+      </c>
+      <c r="F72" t="n">
+        <v>627.0700073242188</v>
+      </c>
+      <c r="G72" t="n">
+        <v>67083200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B73" t="n">
+        <v>615.010009765625</v>
+      </c>
+      <c r="C73" t="n">
+        <v>624</v>
+      </c>
+      <c r="D73" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="E73" t="n">
+        <v>609.989990234375</v>
+      </c>
+      <c r="F73" t="n">
+        <v>609.989990234375</v>
+      </c>
+      <c r="G73" t="n">
+        <v>46475000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B74" t="n">
+        <v>619</v>
+      </c>
+      <c r="C74" t="n">
+        <v>642.75</v>
+      </c>
+      <c r="D74" t="n">
+        <v>610.2000122070312</v>
+      </c>
+      <c r="E74" t="n">
+        <v>639.8300170898438</v>
+      </c>
+      <c r="F74" t="n">
+        <v>639.8300170898438</v>
+      </c>
+      <c r="G74" t="n">
+        <v>52040600</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B75" t="n">
+        <v>643.280029296875</v>
+      </c>
+      <c r="C75" t="n">
+        <v>646.9000244140625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>623.7999877929688</v>
+      </c>
+      <c r="E75" t="n">
+        <v>633.25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>633.25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>45071500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="B76" t="n">
+        <v>628.22998046875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>605</v>
+      </c>
+      <c r="E76" t="n">
+        <v>622.77001953125</v>
+      </c>
+      <c r="F76" t="n">
+        <v>622.77001953125</v>
+      </c>
+      <c r="G76" t="n">
+        <v>42095800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B77" t="n">
+        <v>628.1900024414062</v>
+      </c>
+      <c r="C77" t="n">
+        <v>658.8200073242188</v>
+      </c>
+      <c r="D77" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="F77" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="G77" t="n">
+        <v>56270100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B78" t="n">
+        <v>668.9000244140625</v>
+      </c>
+      <c r="C78" t="n">
+        <v>695</v>
+      </c>
+      <c r="D78" t="n">
+        <v>628.5399780273438</v>
+      </c>
+      <c r="E78" t="n">
+        <v>695</v>
+      </c>
+      <c r="F78" t="n">
+        <v>695</v>
+      </c>
+      <c r="G78" t="n">
+        <v>222126200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="B79" t="n">
+        <v>666.239990234375</v>
+      </c>
+      <c r="C79" t="n">
+        <v>668.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>646.0700073242188</v>
+      </c>
+      <c r="E79" t="n">
+        <v>649.8599853515625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>649.8599853515625</v>
+      </c>
+      <c r="G79" t="n">
+        <v>58045300</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="B80" t="n">
+        <v>648</v>
+      </c>
+      <c r="C80" t="n">
+        <v>649.8800048828125</v>
+      </c>
+      <c r="D80" t="n">
+        <v>614.22998046875</v>
+      </c>
+      <c r="E80" t="n">
+        <v>640.3400268554688</v>
+      </c>
+      <c r="F80" t="n">
+        <v>640.3400268554688</v>
+      </c>
+      <c r="G80" t="n">
+        <v>51716000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44188</v>
+      </c>
+      <c r="B81" t="n">
+        <v>632.2000122070312</v>
+      </c>
+      <c r="C81" t="n">
+        <v>651.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>622.5700073242188</v>
+      </c>
+      <c r="E81" t="n">
+        <v>645.97998046875</v>
+      </c>
+      <c r="F81" t="n">
+        <v>645.97998046875</v>
+      </c>
+      <c r="G81" t="n">
+        <v>33173000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B82" t="n">
+        <v>642.989990234375</v>
+      </c>
+      <c r="C82" t="n">
+        <v>666.0900268554688</v>
+      </c>
+      <c r="D82" t="n">
+        <v>641</v>
+      </c>
+      <c r="E82" t="n">
+        <v>661.77001953125</v>
+      </c>
+      <c r="F82" t="n">
+        <v>661.77001953125</v>
+      </c>
+      <c r="G82" t="n">
+        <v>22865600</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="B83" t="n">
+        <v>674.510009765625</v>
+      </c>
+      <c r="C83" t="n">
+        <v>681.4000244140625</v>
+      </c>
+      <c r="D83" t="n">
+        <v>660.7999877929688</v>
+      </c>
+      <c r="E83" t="n">
+        <v>663.6900024414062</v>
+      </c>
+      <c r="F83" t="n">
+        <v>663.6900024414062</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32278600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="B84" t="n">
+        <v>661</v>
+      </c>
+      <c r="C84" t="n">
+        <v>669.9000244140625</v>
+      </c>
+      <c r="D84" t="n">
+        <v>655</v>
+      </c>
+      <c r="E84" t="n">
+        <v>665.989990234375</v>
+      </c>
+      <c r="F84" t="n">
+        <v>665.989990234375</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22910800</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="B85" t="n">
+        <v>672</v>
+      </c>
+      <c r="C85" t="n">
+        <v>696.5999755859375</v>
+      </c>
+      <c r="D85" t="n">
+        <v>668.3599853515625</v>
+      </c>
+      <c r="E85" t="n">
+        <v>694.780029296875</v>
+      </c>
+      <c r="F85" t="n">
+        <v>694.780029296875</v>
+      </c>
+      <c r="G85" t="n">
+        <v>42846000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B33" t="n">
-        <v>92.09999847412109</v>
-      </c>
-      <c r="C33" t="n">
-        <v>92.30000305175781</v>
-      </c>
-      <c r="D33" t="n">
-        <v>90.87000274658203</v>
-      </c>
-      <c r="E33" t="n">
-        <v>91.70999908447266</v>
-      </c>
-      <c r="F33" t="n">
-        <v>91.70999908447266</v>
-      </c>
-      <c r="G33" t="n">
-        <v>24930700</v>
+      <c r="B86" t="n">
+        <v>699.989990234375</v>
+      </c>
+      <c r="C86" t="n">
+        <v>718.719970703125</v>
+      </c>
+      <c r="D86" t="n">
+        <v>691.1199951171875</v>
+      </c>
+      <c r="E86" t="n">
+        <v>705.6699829101562</v>
+      </c>
+      <c r="F86" t="n">
+        <v>705.6699829101562</v>
+      </c>
+      <c r="G86" t="n">
+        <v>49649900</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="B87" t="n">
+        <v>719.4600219726562</v>
+      </c>
+      <c r="C87" t="n">
+        <v>744.489990234375</v>
+      </c>
+      <c r="D87" t="n">
+        <v>717.1900024414062</v>
+      </c>
+      <c r="E87" t="n">
+        <v>729.77001953125</v>
+      </c>
+      <c r="F87" t="n">
+        <v>729.77001953125</v>
+      </c>
+      <c r="G87" t="n">
+        <v>48638200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B88" t="n">
+        <v>723.6599731445312</v>
+      </c>
+      <c r="C88" t="n">
+        <v>740.8400268554688</v>
+      </c>
+      <c r="D88" t="n">
+        <v>719.2000122070312</v>
+      </c>
+      <c r="E88" t="n">
+        <v>735.1099853515625</v>
+      </c>
+      <c r="F88" t="n">
+        <v>735.1099853515625</v>
+      </c>
+      <c r="G88" t="n">
+        <v>32245200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44202</v>
+      </c>
+      <c r="B89" t="n">
+        <v>758.489990234375</v>
+      </c>
+      <c r="C89" t="n">
+        <v>774</v>
+      </c>
+      <c r="D89" t="n">
+        <v>749.0999755859375</v>
+      </c>
+      <c r="E89" t="n">
+        <v>755.97998046875</v>
+      </c>
+      <c r="F89" t="n">
+        <v>755.97998046875</v>
+      </c>
+      <c r="G89" t="n">
+        <v>44700000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B90" t="n">
+        <v>777.6300048828125</v>
+      </c>
+      <c r="C90" t="n">
+        <v>816.989990234375</v>
+      </c>
+      <c r="D90" t="n">
+        <v>775.2000122070312</v>
+      </c>
+      <c r="E90" t="n">
+        <v>816.0399780273438</v>
+      </c>
+      <c r="F90" t="n">
+        <v>816.0399780273438</v>
+      </c>
+      <c r="G90" t="n">
+        <v>51498900</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B91" t="n">
+        <v>856</v>
+      </c>
+      <c r="C91" t="n">
+        <v>884.489990234375</v>
+      </c>
+      <c r="D91" t="n">
+        <v>838.3900146484375</v>
+      </c>
+      <c r="E91" t="n">
+        <v>880.02001953125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>880.02001953125</v>
+      </c>
+      <c r="G91" t="n">
+        <v>75055500</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B92" t="n">
+        <v>849.4000244140625</v>
+      </c>
+      <c r="C92" t="n">
+        <v>854.4299926757812</v>
+      </c>
+      <c r="D92" t="n">
+        <v>803.6199951171875</v>
+      </c>
+      <c r="E92" t="n">
+        <v>811.1900024414062</v>
+      </c>
+      <c r="F92" t="n">
+        <v>811.1900024414062</v>
+      </c>
+      <c r="G92" t="n">
+        <v>59301600</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="B93" t="n">
+        <v>831</v>
+      </c>
+      <c r="C93" t="n">
+        <v>868</v>
+      </c>
+      <c r="D93" t="n">
+        <v>827.3400268554688</v>
+      </c>
+      <c r="E93" t="n">
+        <v>849.4400024414062</v>
+      </c>
+      <c r="F93" t="n">
+        <v>849.4400024414062</v>
+      </c>
+      <c r="G93" t="n">
+        <v>46270700</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="B94" t="n">
+        <v>852.760009765625</v>
+      </c>
+      <c r="C94" t="n">
+        <v>860.469970703125</v>
+      </c>
+      <c r="D94" t="n">
+        <v>832</v>
+      </c>
+      <c r="E94" t="n">
+        <v>854.4099731445312</v>
+      </c>
+      <c r="F94" t="n">
+        <v>854.4099731445312</v>
+      </c>
+      <c r="G94" t="n">
+        <v>33312500</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B95" t="n">
+        <v>843.3900146484375</v>
+      </c>
+      <c r="C95" t="n">
+        <v>863</v>
+      </c>
+      <c r="D95" t="n">
+        <v>838.75</v>
+      </c>
+      <c r="E95" t="n">
+        <v>845</v>
+      </c>
+      <c r="F95" t="n">
+        <v>845</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31266300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B96" t="n">
+        <v>852</v>
+      </c>
+      <c r="C96" t="n">
+        <v>859.9000244140625</v>
+      </c>
+      <c r="D96" t="n">
+        <v>819.0999755859375</v>
+      </c>
+      <c r="E96" t="n">
+        <v>826.1599731445312</v>
+      </c>
+      <c r="F96" t="n">
+        <v>826.1599731445312</v>
+      </c>
+      <c r="G96" t="n">
+        <v>38777600</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44215</v>
+      </c>
+      <c r="B97" t="n">
+        <v>837.7999877929688</v>
+      </c>
+      <c r="C97" t="n">
+        <v>850</v>
+      </c>
+      <c r="D97" t="n">
+        <v>833</v>
+      </c>
+      <c r="E97" t="n">
+        <v>844.5499877929688</v>
+      </c>
+      <c r="F97" t="n">
+        <v>844.5499877929688</v>
+      </c>
+      <c r="G97" t="n">
+        <v>25367000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B98" t="n">
+        <v>858.739990234375</v>
+      </c>
+      <c r="C98" t="n">
+        <v>859.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>837.280029296875</v>
+      </c>
+      <c r="E98" t="n">
+        <v>850.4500122070312</v>
+      </c>
+      <c r="F98" t="n">
+        <v>850.4500122070312</v>
+      </c>
+      <c r="G98" t="n">
+        <v>25665900</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B99" t="n">
+        <v>855</v>
+      </c>
+      <c r="C99" t="n">
+        <v>855.719970703125</v>
+      </c>
+      <c r="D99" t="n">
+        <v>841.4199829101562</v>
+      </c>
+      <c r="E99" t="n">
+        <v>844.989990234375</v>
+      </c>
+      <c r="F99" t="n">
+        <v>844.989990234375</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20521100</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B100" t="n">
+        <v>834.3099975585938</v>
+      </c>
+      <c r="C100" t="n">
+        <v>848</v>
+      </c>
+      <c r="D100" t="n">
+        <v>828.6199951171875</v>
+      </c>
+      <c r="E100" t="n">
+        <v>846.6400146484375</v>
+      </c>
+      <c r="F100" t="n">
+        <v>846.6400146484375</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20066500</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B101" t="n">
+        <v>855</v>
+      </c>
+      <c r="C101" t="n">
+        <v>900.4000244140625</v>
+      </c>
+      <c r="D101" t="n">
+        <v>838.8200073242188</v>
+      </c>
+      <c r="E101" t="n">
+        <v>880.7999877929688</v>
+      </c>
+      <c r="F101" t="n">
+        <v>880.7999877929688</v>
+      </c>
+      <c r="G101" t="n">
+        <v>41173400</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44222</v>
+      </c>
+      <c r="B102" t="n">
+        <v>891.3800048828125</v>
+      </c>
+      <c r="C102" t="n">
+        <v>895.9000244140625</v>
+      </c>
+      <c r="D102" t="n">
+        <v>871.5999755859375</v>
+      </c>
+      <c r="E102" t="n">
+        <v>883.0900268554688</v>
+      </c>
+      <c r="F102" t="n">
+        <v>883.0900268554688</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23131600</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B103" t="n">
+        <v>870.3499755859375</v>
+      </c>
+      <c r="C103" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>858.6599731445312</v>
+      </c>
+      <c r="E103" t="n">
+        <v>864.1599731445312</v>
+      </c>
+      <c r="F103" t="n">
+        <v>864.1599731445312</v>
+      </c>
+      <c r="G103" t="n">
+        <v>27334000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B104" t="n">
+        <v>820</v>
+      </c>
+      <c r="C104" t="n">
+        <v>848</v>
+      </c>
+      <c r="D104" t="n">
+        <v>801</v>
+      </c>
+      <c r="E104" t="n">
+        <v>835.4299926757812</v>
+      </c>
+      <c r="F104" t="n">
+        <v>835.4299926757812</v>
+      </c>
+      <c r="G104" t="n">
+        <v>26378000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B105" t="n">
+        <v>830</v>
+      </c>
+      <c r="C105" t="n">
+        <v>842.4099731445312</v>
+      </c>
+      <c r="D105" t="n">
+        <v>780.0999755859375</v>
+      </c>
+      <c r="E105" t="n">
+        <v>793.530029296875</v>
+      </c>
+      <c r="F105" t="n">
+        <v>793.530029296875</v>
+      </c>
+      <c r="G105" t="n">
+        <v>34990800</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B106" t="n">
+        <v>814.2899780273438</v>
+      </c>
+      <c r="C106" t="n">
+        <v>842</v>
+      </c>
+      <c r="D106" t="n">
+        <v>795.5599975585938</v>
+      </c>
+      <c r="E106" t="n">
+        <v>839.8099975585938</v>
+      </c>
+      <c r="F106" t="n">
+        <v>839.8099975585938</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25391400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="B107" t="n">
+        <v>844.6799926757812</v>
+      </c>
+      <c r="C107" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>842.2000122070312</v>
+      </c>
+      <c r="E107" t="n">
+        <v>872.7899780273438</v>
+      </c>
+      <c r="F107" t="n">
+        <v>872.7899780273438</v>
+      </c>
+      <c r="G107" t="n">
+        <v>24346200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B108" t="n">
+        <v>877.02001953125</v>
+      </c>
+      <c r="C108" t="n">
+        <v>878.0800170898438</v>
+      </c>
+      <c r="D108" t="n">
+        <v>853.0599975585938</v>
+      </c>
+      <c r="E108" t="n">
+        <v>854.6900024414062</v>
+      </c>
+      <c r="F108" t="n">
+        <v>854.6900024414062</v>
+      </c>
+      <c r="G108" t="n">
+        <v>18343500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B109" t="n">
+        <v>855</v>
+      </c>
+      <c r="C109" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>833.4199829101562</v>
+      </c>
+      <c r="E109" t="n">
+        <v>849.989990234375</v>
+      </c>
+      <c r="F109" t="n">
+        <v>849.989990234375</v>
+      </c>
+      <c r="G109" t="n">
+        <v>15812700</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B110" t="n">
+        <v>845</v>
+      </c>
+      <c r="C110" t="n">
+        <v>864.77001953125</v>
+      </c>
+      <c r="D110" t="n">
+        <v>838.969970703125</v>
+      </c>
+      <c r="E110" t="n">
+        <v>852.22998046875</v>
+      </c>
+      <c r="F110" t="n">
+        <v>852.22998046875</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18566600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B111" t="n">
+        <v>869.6699829101562</v>
+      </c>
+      <c r="C111" t="n">
+        <v>877.77001953125</v>
+      </c>
+      <c r="D111" t="n">
+        <v>854.75</v>
+      </c>
+      <c r="E111" t="n">
+        <v>863.4199829101562</v>
+      </c>
+      <c r="F111" t="n">
+        <v>863.4199829101562</v>
+      </c>
+      <c r="G111" t="n">
+        <v>20161700</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="B112" t="n">
+        <v>855.1199951171875</v>
+      </c>
+      <c r="C112" t="n">
+        <v>859.7999877929688</v>
+      </c>
+      <c r="D112" t="n">
+        <v>841.75</v>
+      </c>
+      <c r="E112" t="n">
+        <v>849.4600219726562</v>
+      </c>
+      <c r="F112" t="n">
+        <v>849.4600219726562</v>
+      </c>
+      <c r="G112" t="n">
+        <v>15157700</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B113" t="n">
+        <v>843.6400146484375</v>
+      </c>
+      <c r="C113" t="n">
+        <v>844.8200073242188</v>
+      </c>
+      <c r="D113" t="n">
+        <v>800.02001953125</v>
+      </c>
+      <c r="E113" t="n">
+        <v>804.8200073242188</v>
+      </c>
+      <c r="F113" t="n">
+        <v>804.8200073242188</v>
+      </c>
+      <c r="G113" t="n">
+        <v>36216100</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B114" t="n">
+        <v>812.4400024414062</v>
+      </c>
+      <c r="C114" t="n">
+        <v>829.8800048828125</v>
+      </c>
+      <c r="D114" t="n">
+        <v>801.72998046875</v>
+      </c>
+      <c r="E114" t="n">
+        <v>811.6599731445312</v>
+      </c>
+      <c r="F114" t="n">
+        <v>811.6599731445312</v>
+      </c>
+      <c r="G114" t="n">
+        <v>21622800</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B115" t="n">
+        <v>801.260009765625</v>
+      </c>
+      <c r="C115" t="n">
+        <v>817.3300170898438</v>
+      </c>
+      <c r="D115" t="n">
+        <v>785.3300170898438</v>
+      </c>
+      <c r="E115" t="n">
+        <v>816.1199951171875</v>
+      </c>
+      <c r="F115" t="n">
+        <v>816.1199951171875</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23768300</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B116" t="n">
+        <v>818</v>
+      </c>
+      <c r="C116" t="n">
+        <v>821</v>
+      </c>
+      <c r="D116" t="n">
+        <v>792.4400024414062</v>
+      </c>
+      <c r="E116" t="n">
+        <v>796.219970703125</v>
+      </c>
+      <c r="F116" t="n">
+        <v>796.219970703125</v>
+      </c>
+      <c r="G116" t="n">
+        <v>19802300</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B117" t="n">
+        <v>779.0900268554688</v>
+      </c>
+      <c r="C117" t="n">
+        <v>799.8400268554688</v>
+      </c>
+      <c r="D117" t="n">
+        <v>762.010009765625</v>
+      </c>
+      <c r="E117" t="n">
+        <v>798.1500244140625</v>
+      </c>
+      <c r="F117" t="n">
+        <v>798.1500244140625</v>
+      </c>
+      <c r="G117" t="n">
+        <v>25996500</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B118" t="n">
+        <v>780.9000244140625</v>
+      </c>
+      <c r="C118" t="n">
+        <v>794.6900024414062</v>
+      </c>
+      <c r="D118" t="n">
+        <v>776.27001953125</v>
+      </c>
+      <c r="E118" t="n">
+        <v>787.3800048828125</v>
+      </c>
+      <c r="F118" t="n">
+        <v>787.3800048828125</v>
+      </c>
+      <c r="G118" t="n">
+        <v>17957100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B119" t="n">
+        <v>795</v>
+      </c>
+      <c r="C119" t="n">
+        <v>796.7899780273438</v>
+      </c>
+      <c r="D119" t="n">
+        <v>777.3699951171875</v>
+      </c>
+      <c r="E119" t="n">
+        <v>781.2999877929688</v>
+      </c>
+      <c r="F119" t="n">
+        <v>781.2999877929688</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18958300</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B120" t="n">
+        <v>762.6400146484375</v>
+      </c>
+      <c r="C120" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>710.2000122070312</v>
+      </c>
+      <c r="E120" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>37269700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B121" t="n">
+        <v>662.1300048828125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>713.6099853515625</v>
+      </c>
+      <c r="D121" t="n">
+        <v>619</v>
+      </c>
+      <c r="E121" t="n">
+        <v>698.8400268554688</v>
+      </c>
+      <c r="F121" t="n">
+        <v>698.8400268554688</v>
+      </c>
+      <c r="G121" t="n">
+        <v>66606900</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B122" t="n">
+        <v>711.8499755859375</v>
+      </c>
+      <c r="C122" t="n">
+        <v>745</v>
+      </c>
+      <c r="D122" t="n">
+        <v>694.1699829101562</v>
+      </c>
+      <c r="E122" t="n">
+        <v>742.02001953125</v>
+      </c>
+      <c r="F122" t="n">
+        <v>742.02001953125</v>
+      </c>
+      <c r="G122" t="n">
+        <v>36767000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B123" t="n">
+        <v>726.1500244140625</v>
+      </c>
+      <c r="C123" t="n">
+        <v>737.2100219726562</v>
+      </c>
+      <c r="D123" t="n">
+        <v>670.5800170898438</v>
+      </c>
+      <c r="E123" t="n">
+        <v>682.219970703125</v>
+      </c>
+      <c r="F123" t="n">
+        <v>682.219970703125</v>
+      </c>
+      <c r="G123" t="n">
+        <v>39023900</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B124" t="n">
+        <v>700</v>
+      </c>
+      <c r="C124" t="n">
+        <v>706.7000122070312</v>
+      </c>
+      <c r="D124" t="n">
+        <v>659.510009765625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>675.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>675.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>41089200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B125" t="n">
+        <v>690.1099853515625</v>
+      </c>
+      <c r="C125" t="n">
+        <v>719</v>
+      </c>
+      <c r="D125" t="n">
+        <v>685.0499877929688</v>
+      </c>
+      <c r="E125" t="n">
+        <v>718.4299926757812</v>
+      </c>
+      <c r="F125" t="n">
+        <v>718.4299926757812</v>
+      </c>
+      <c r="G125" t="n">
+        <v>27136200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B126" t="n">
+        <v>718.280029296875</v>
+      </c>
+      <c r="C126" t="n">
+        <v>721.1099853515625</v>
+      </c>
+      <c r="D126" t="n">
+        <v>685</v>
+      </c>
+      <c r="E126" t="n">
+        <v>686.4400024414062</v>
+      </c>
+      <c r="F126" t="n">
+        <v>686.4400024414062</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23732200</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B127" t="n">
+        <v>687.989990234375</v>
+      </c>
+      <c r="C127" t="n">
+        <v>700.7000122070312</v>
+      </c>
+      <c r="D127" t="n">
+        <v>651.7100219726562</v>
+      </c>
+      <c r="E127" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="F127" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="G127" t="n">
+        <v>30208000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B128" t="n">
+        <v>655.7999877929688</v>
+      </c>
+      <c r="C128" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D128" t="n">
+        <v>600</v>
+      </c>
+      <c r="E128" t="n">
+        <v>621.4400024414062</v>
+      </c>
+      <c r="F128" t="n">
+        <v>621.4400024414062</v>
+      </c>
+      <c r="G128" t="n">
+        <v>65919500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B129" t="n">
+        <v>626.0599975585938</v>
+      </c>
+      <c r="C129" t="n">
+        <v>627.8400268554688</v>
+      </c>
+      <c r="D129" t="n">
+        <v>539.489990234375</v>
+      </c>
+      <c r="E129" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="F129" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="G129" t="n">
+        <v>89396500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B130" t="n">
+        <v>600.5499877929688</v>
+      </c>
+      <c r="C130" t="n">
+        <v>620.1300048828125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>558.7899780273438</v>
+      </c>
+      <c r="E130" t="n">
+        <v>563</v>
+      </c>
+      <c r="F130" t="n">
+        <v>563</v>
+      </c>
+      <c r="G130" t="n">
+        <v>51787000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44264</v>
+      </c>
+      <c r="B131" t="n">
+        <v>608.1799926757812</v>
+      </c>
+      <c r="C131" t="n">
+        <v>678.0900268554688</v>
+      </c>
+      <c r="D131" t="n">
+        <v>595.2100219726562</v>
+      </c>
+      <c r="E131" t="n">
+        <v>673.5800170898438</v>
+      </c>
+      <c r="F131" t="n">
+        <v>673.5800170898438</v>
+      </c>
+      <c r="G131" t="n">
+        <v>67523300</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="B132" t="n">
+        <v>700.2999877929688</v>
+      </c>
+      <c r="C132" t="n">
+        <v>717.8499755859375</v>
+      </c>
+      <c r="D132" t="n">
+        <v>655.0599975585938</v>
+      </c>
+      <c r="E132" t="n">
+        <v>668.0599975585938</v>
+      </c>
+      <c r="F132" t="n">
+        <v>668.0599975585938</v>
+      </c>
+      <c r="G132" t="n">
+        <v>60605700</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B133" t="n">
+        <v>699.4000244140625</v>
+      </c>
+      <c r="C133" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>677.1799926757812</v>
+      </c>
+      <c r="E133" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="F133" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="G133" t="n">
+        <v>36253900</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B134" t="n">
+        <v>670</v>
+      </c>
+      <c r="C134" t="n">
+        <v>694.8800048828125</v>
+      </c>
+      <c r="D134" t="n">
+        <v>666.1400146484375</v>
+      </c>
+      <c r="E134" t="n">
+        <v>693.72998046875</v>
+      </c>
+      <c r="F134" t="n">
+        <v>693.72998046875</v>
+      </c>
+      <c r="G134" t="n">
+        <v>33583800</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B135" t="n">
+        <v>694.0900268554688</v>
+      </c>
+      <c r="C135" t="n">
+        <v>713.1799926757812</v>
+      </c>
+      <c r="D135" t="n">
+        <v>684.0399780273438</v>
+      </c>
+      <c r="E135" t="n">
+        <v>707.9400024414062</v>
+      </c>
+      <c r="F135" t="n">
+        <v>707.9400024414062</v>
+      </c>
+      <c r="G135" t="n">
+        <v>29335600</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="B136" t="n">
+        <v>703.3499755859375</v>
+      </c>
+      <c r="C136" t="n">
+        <v>707.9199829101562</v>
+      </c>
+      <c r="D136" t="n">
+        <v>671</v>
+      </c>
+      <c r="E136" t="n">
+        <v>676.8800048828125</v>
+      </c>
+      <c r="F136" t="n">
+        <v>676.8800048828125</v>
+      </c>
+      <c r="G136" t="n">
+        <v>31903400</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B137" t="n">
+        <v>656.8699951171875</v>
+      </c>
+      <c r="C137" t="n">
+        <v>703.72998046875</v>
+      </c>
+      <c r="D137" t="n">
+        <v>651.010009765625</v>
+      </c>
+      <c r="E137" t="n">
+        <v>701.8099975585938</v>
+      </c>
+      <c r="F137" t="n">
+        <v>701.8099975585938</v>
+      </c>
+      <c r="G137" t="n">
+        <v>40083300</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B138" t="n">
+        <v>684.2899780273438</v>
+      </c>
+      <c r="C138" t="n">
+        <v>689.22998046875</v>
+      </c>
+      <c r="D138" t="n">
+        <v>652</v>
+      </c>
+      <c r="E138" t="n">
+        <v>653.1599731445312</v>
+      </c>
+      <c r="F138" t="n">
+        <v>653.1599731445312</v>
+      </c>
+      <c r="G138" t="n">
+        <v>33224800</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B139" t="n">
+        <v>646.5999755859375</v>
+      </c>
+      <c r="C139" t="n">
+        <v>657.22998046875</v>
+      </c>
+      <c r="D139" t="n">
+        <v>624.6199951171875</v>
+      </c>
+      <c r="E139" t="n">
+        <v>654.8699951171875</v>
+      </c>
+      <c r="F139" t="n">
+        <v>654.8699951171875</v>
+      </c>
+      <c r="G139" t="n">
+        <v>42827400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B140" t="n">
+        <v>684.5900268554688</v>
+      </c>
+      <c r="C140" t="n">
+        <v>699.6199951171875</v>
+      </c>
+      <c r="D140" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="E140" t="n">
+        <v>670</v>
+      </c>
+      <c r="F140" t="n">
+        <v>670</v>
+      </c>
+      <c r="G140" t="n">
+        <v>39512200</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B141" t="n">
+        <v>675.77001953125</v>
+      </c>
+      <c r="C141" t="n">
+        <v>677.7999877929688</v>
+      </c>
+      <c r="D141" t="n">
+        <v>657.510009765625</v>
+      </c>
+      <c r="E141" t="n">
+        <v>662.1599731445312</v>
+      </c>
+      <c r="F141" t="n">
+        <v>662.1599731445312</v>
+      </c>
+      <c r="G141" t="n">
+        <v>30491900</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B142" t="n">
+        <v>667.9099731445312</v>
+      </c>
+      <c r="C142" t="n">
+        <v>668.02001953125</v>
+      </c>
+      <c r="D142" t="n">
+        <v>630.1099853515625</v>
+      </c>
+      <c r="E142" t="n">
+        <v>630.27001953125</v>
+      </c>
+      <c r="F142" t="n">
+        <v>630.27001953125</v>
+      </c>
+      <c r="G142" t="n">
+        <v>33795200</v>
       </c>
     </row>
   </sheetData>
